--- a/员工归档/工作输出/屈圣冰/分班册/任课老师课表/向佳玲.xlsx
+++ b/员工归档/工作输出/屈圣冰/分班册/任课老师课表/向佳玲.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>课程表</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>16:30~17:10</t>
+  </si>
+  <si>
+    <t>代课老师：向佳玲</t>
   </si>
 </sst>
 </file>
@@ -127,13 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
@@ -142,8 +138,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +184,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -166,7 +238,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,96 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,11 +283,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,25 +299,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,157 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,17 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,26 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,15 +626,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +647,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -680,184 +684,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1202,11 +1209,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:N12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1233,113 +1242,87 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>17</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
@@ -1381,49 +1364,49 @@
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -1463,71 +1446,71 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1569,98 +1552,145 @@
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>28</v>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="11:11">
+      <c r="K15" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
